--- a/biology/Histoire de la zoologie et de la botanique/Friedrich_Dehnhardt/Friedrich_Dehnhardt.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Friedrich_Dehnhardt/Friedrich_Dehnhardt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Friedrich Dehnhardt, né le 22 septembre 1787 à Northeim et mort le 1er mai 1870 à Naples, est un jardinier prussien. Il passe une grande partie de sa carrière professionnelle à Naples.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Friedrich Dehnhardt est jardinier en chef de l'Hortus Camaldulensis di Napoli, les jardins de Camaldoli à Naples, propriété du comte de Camaldoli, Francesco Ricciardi. C'est dans ces jardins que Dehnhardt a décrit le spécimen type d'Eucalyptus camaldulensis en 1832, créé à partir de graines envoyées par le botaniste Allan Cunningham après un voyage de collecte en 1817 à Condobolin, en Nouvelle-Galles du Sud. À Naples, ces arbres ont été abattus dans les années 1920 et leur description botanique est restée perdue pendant presque un siècle, ne refaisant surface qu'en 1920[1] 
-La collection de spécimens botaniques de Dehnhardt se trouve au Musée d'histoire naturelle de Vienne, en Autriche[2]. Cette présence d'eucalyptus au début du XIXe siècle en Europe est antérieure à la promotion du genre par Ferdinand von Mueller[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Friedrich Dehnhardt est jardinier en chef de l'Hortus Camaldulensis di Napoli, les jardins de Camaldoli à Naples, propriété du comte de Camaldoli, Francesco Ricciardi. C'est dans ces jardins que Dehnhardt a décrit le spécimen type d'Eucalyptus camaldulensis en 1832, créé à partir de graines envoyées par le botaniste Allan Cunningham après un voyage de collecte en 1817 à Condobolin, en Nouvelle-Galles du Sud. À Naples, ces arbres ont été abattus dans les années 1920 et leur description botanique est restée perdue pendant presque un siècle, ne refaisant surface qu'en 1920 
+La collection de spécimens botaniques de Dehnhardt se trouve au Musée d'histoire naturelle de Vienne, en Autriche. Cette présence d'eucalyptus au début du XIXe siècle en Europe est antérieure à la promotion du genre par Ferdinand von Mueller. 
 Friedrich Dehnhardt est connu pour l'aménagement du parc de Capodimonte, vers 1840. 
 Il meurt à Naples en 1870, et il est inhumé au cimetière anglais de Naples.
 </t>
